--- a/data/0827/定量分析结果-0827.xlsx
+++ b/data/0827/定量分析结果-0827.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="120">
   <si>
     <t>指标</t>
   </si>
@@ -731,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1473,6 +1473,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24">
+        <v>0.8157</v>
+      </c>
+      <c r="E24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24">
+        <v>0.4151</v>
+      </c>
+      <c r="H24">
+        <v>12434.5</v>
+      </c>
+      <c r="I24">
+        <v>0.526</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
